--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efna1-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efna1-Epha4.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.905615</v>
+        <v>23.630375</v>
       </c>
       <c r="H2">
-        <v>35.716845</v>
+        <v>70.89112499999999</v>
       </c>
       <c r="I2">
-        <v>0.8197078149061106</v>
+        <v>0.9002398112414131</v>
       </c>
       <c r="J2">
-        <v>0.8197078149061106</v>
+        <v>0.9002398112414129</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.856403666666667</v>
+        <v>8.081040666666667</v>
       </c>
       <c r="N2">
-        <v>8.569210999999999</v>
+        <v>24.243122</v>
       </c>
       <c r="O2">
-        <v>0.235832554697756</v>
+        <v>0.4661250698616886</v>
       </c>
       <c r="P2">
-        <v>0.235832554697756</v>
+        <v>0.4661250698616886</v>
       </c>
       <c r="Q2">
-        <v>34.00724233992166</v>
+        <v>190.9580213435833</v>
       </c>
       <c r="R2">
-        <v>306.065181059295</v>
+        <v>1718.62219209225</v>
       </c>
       <c r="S2">
-        <v>0.1933137880950234</v>
+        <v>0.419624344907177</v>
       </c>
       <c r="T2">
-        <v>0.1933137880950234</v>
+        <v>0.419624344907177</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.905615</v>
+        <v>23.630375</v>
       </c>
       <c r="H3">
-        <v>35.716845</v>
+        <v>70.89112499999999</v>
       </c>
       <c r="I3">
-        <v>0.8197078149061106</v>
+        <v>0.9002398112414131</v>
       </c>
       <c r="J3">
-        <v>0.8197078149061106</v>
+        <v>0.9002398112414129</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>21.000902</v>
       </c>
       <c r="O3">
-        <v>0.5779641054021444</v>
+        <v>0.4037865631294714</v>
       </c>
       <c r="P3">
-        <v>0.5779641054021444</v>
+        <v>0.4037865631294715</v>
       </c>
       <c r="Q3">
-        <v>83.34288462157667</v>
+        <v>165.4197298660833</v>
       </c>
       <c r="R3">
-        <v>750.0859615941902</v>
+        <v>1488.77756879475</v>
       </c>
       <c r="S3">
-        <v>0.4737616939333567</v>
+        <v>0.3635047393734943</v>
       </c>
       <c r="T3">
-        <v>0.4737616939333567</v>
+        <v>0.3635047393734943</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.905615</v>
+        <v>23.630375</v>
       </c>
       <c r="H4">
-        <v>35.716845</v>
+        <v>70.89112499999999</v>
       </c>
       <c r="I4">
-        <v>0.8197078149061106</v>
+        <v>0.9002398112414131</v>
       </c>
       <c r="J4">
-        <v>0.8197078149061106</v>
+        <v>0.9002398112414129</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>6.765884</v>
       </c>
       <c r="O4">
-        <v>0.1862033399000996</v>
+        <v>0.1300883670088399</v>
       </c>
       <c r="P4">
-        <v>0.1862033399000996</v>
+        <v>0.1300883670088399</v>
       </c>
       <c r="Q4">
-        <v>26.85067001288666</v>
+        <v>53.29345870883332</v>
       </c>
       <c r="R4">
-        <v>241.65603011598</v>
+        <v>479.6411283794999</v>
       </c>
       <c r="S4">
-        <v>0.1526323328777304</v>
+        <v>0.1171107269607417</v>
       </c>
       <c r="T4">
-        <v>0.1526323328777304</v>
+        <v>0.1171107269607417</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>4.894019999999999</v>
       </c>
       <c r="I5">
-        <v>0.1123186115768849</v>
+        <v>0.06214870537054815</v>
       </c>
       <c r="J5">
-        <v>0.1123186115768849</v>
+        <v>0.06214870537054815</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2.856403666666667</v>
+        <v>8.081040666666667</v>
       </c>
       <c r="N5">
-        <v>8.569210999999999</v>
+        <v>24.243122</v>
       </c>
       <c r="O5">
-        <v>0.235832554697756</v>
+        <v>0.4661250698616886</v>
       </c>
       <c r="P5">
-        <v>0.235832554697756</v>
+        <v>0.4661250698616886</v>
       </c>
       <c r="Q5">
-        <v>4.659765557579999</v>
+        <v>13.18292488116</v>
       </c>
       <c r="R5">
-        <v>41.93789001821999</v>
+        <v>118.64632393044</v>
       </c>
       <c r="S5">
-        <v>0.02648838510828172</v>
+        <v>0.02896906963266026</v>
       </c>
       <c r="T5">
-        <v>0.02648838510828171</v>
+        <v>0.02896906963266026</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>4.894019999999999</v>
       </c>
       <c r="I6">
-        <v>0.1123186115768849</v>
+        <v>0.06214870537054815</v>
       </c>
       <c r="J6">
-        <v>0.1123186115768849</v>
+        <v>0.06214870537054815</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>21.000902</v>
       </c>
       <c r="O6">
-        <v>0.5779641054021444</v>
+        <v>0.4037865631294714</v>
       </c>
       <c r="P6">
-        <v>0.5779641054021444</v>
+        <v>0.4037865631294715</v>
       </c>
       <c r="Q6">
         <v>11.41987048956</v>
@@ -818,10 +818,10 @@
         <v>102.77883440604</v>
       </c>
       <c r="S6">
-        <v>0.06491612586004521</v>
+        <v>0.02509481214451976</v>
       </c>
       <c r="T6">
-        <v>0.06491612586004521</v>
+        <v>0.02509481214451976</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>4.894019999999999</v>
       </c>
       <c r="I7">
-        <v>0.1123186115768849</v>
+        <v>0.06214870537054815</v>
       </c>
       <c r="J7">
-        <v>0.1123186115768849</v>
+        <v>0.06214870537054815</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>6.765884</v>
       </c>
       <c r="O7">
-        <v>0.1862033399000996</v>
+        <v>0.1300883670088399</v>
       </c>
       <c r="P7">
-        <v>0.1862033399000996</v>
+        <v>0.1300883670088399</v>
       </c>
       <c r="Q7">
         <v>3.679152401519999</v>
@@ -880,10 +880,10 @@
         <v>33.11237161368</v>
       </c>
       <c r="S7">
-        <v>0.02091410060855796</v>
+        <v>0.008084823593368127</v>
       </c>
       <c r="T7">
-        <v>0.02091410060855796</v>
+        <v>0.008084823593368127</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>2.961789</v>
       </c>
       <c r="I8">
-        <v>0.0679735735170045</v>
+        <v>0.03761148338803896</v>
       </c>
       <c r="J8">
-        <v>0.06797357351700449</v>
+        <v>0.03761148338803896</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>2.856403666666667</v>
+        <v>8.081040666666667</v>
       </c>
       <c r="N8">
-        <v>8.569210999999999</v>
+        <v>24.243122</v>
       </c>
       <c r="O8">
-        <v>0.235832554697756</v>
+        <v>0.4661250698616886</v>
       </c>
       <c r="P8">
-        <v>0.235832554697756</v>
+        <v>0.4661250698616886</v>
       </c>
       <c r="Q8">
-        <v>2.820021653164333</v>
+        <v>7.978112451695333</v>
       </c>
       <c r="R8">
-        <v>25.380194878479</v>
+        <v>71.803012065258</v>
       </c>
       <c r="S8">
-        <v>0.0160303814944509</v>
+        <v>0.0175316553218514</v>
       </c>
       <c r="T8">
-        <v>0.0160303814944509</v>
+        <v>0.0175316553218514</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>2.961789</v>
       </c>
       <c r="I9">
-        <v>0.0679735735170045</v>
+        <v>0.03761148338803896</v>
       </c>
       <c r="J9">
-        <v>0.06797357351700449</v>
+        <v>0.03761148338803896</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>21.000902</v>
       </c>
       <c r="O9">
-        <v>0.5779641054021444</v>
+        <v>0.4037865631294714</v>
       </c>
       <c r="P9">
-        <v>0.5779641054021444</v>
+        <v>0.4037865631294715</v>
       </c>
       <c r="Q9">
         <v>6.911137837075334</v>
@@ -1004,10 +1004,10 @@
         <v>62.20024053367801</v>
       </c>
       <c r="S9">
-        <v>0.0392862856087424</v>
+        <v>0.01518701161145746</v>
       </c>
       <c r="T9">
-        <v>0.03928628560874239</v>
+        <v>0.01518701161145746</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>2.961789</v>
       </c>
       <c r="I10">
-        <v>0.0679735735170045</v>
+        <v>0.03761148338803896</v>
       </c>
       <c r="J10">
-        <v>0.06797357351700449</v>
+        <v>0.03761148338803896</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>6.765884</v>
       </c>
       <c r="O10">
-        <v>0.1862033399000996</v>
+        <v>0.1300883670088399</v>
       </c>
       <c r="P10">
-        <v>0.1862033399000996</v>
+        <v>0.1300883670088399</v>
       </c>
       <c r="Q10">
         <v>2.226568978497333</v>
@@ -1066,10 +1066,10 @@
         <v>20.039120806476</v>
       </c>
       <c r="S10">
-        <v>0.0126569064138112</v>
+        <v>0.004892816454730099</v>
       </c>
       <c r="T10">
-        <v>0.01265690641381119</v>
+        <v>0.004892816454730099</v>
       </c>
     </row>
   </sheetData>
